--- a/data/trans_orig/P36BPD08_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD08_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>367861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>346812</v>
+        <v>347620</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>384032</v>
+        <v>384745</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9020787972893075</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8504601515384288</v>
+        <v>0.852441802262169</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9417335578005572</v>
+        <v>0.9434820837770398</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>206</v>
@@ -762,7 +762,7 @@
         <v>360249</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>351174</v>
+        <v>351425</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>362512</v>
@@ -771,7 +771,7 @@
         <v>0.993758504610759</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9687238532992336</v>
+        <v>0.969415576528016</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -783,19 +783,19 @@
         <v>728111</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>705756</v>
+        <v>704365</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>745510</v>
+        <v>744067</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9452240321535489</v>
+        <v>0.9452240321535488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9162026835378532</v>
+        <v>0.9143981168804316</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9678111323760122</v>
+        <v>0.9659385817041909</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>26787</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12832</v>
+        <v>13548</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45125</v>
+        <v>46853</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06568881490322066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03146757296402473</v>
+        <v>0.03322384647003943</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1106568680444244</v>
+        <v>0.1148934722817388</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -846,19 +846,19 @@
         <v>26787</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13365</v>
+        <v>14382</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>47974</v>
+        <v>51203</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03477511077220859</v>
+        <v>0.03477511077220858</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01735020314539609</v>
+        <v>0.01866991062561791</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06227864387516371</v>
+        <v>0.06647082771870405</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>13144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5770</v>
+        <v>5682</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>27300</v>
+        <v>27020</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03223238780747194</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01414890670552394</v>
+        <v>0.01393456486066537</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06694490042873709</v>
+        <v>0.06625897081226695</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11338</v>
+        <v>11087</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006241495389241093</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03127614670076628</v>
+        <v>0.03058442347198393</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -917,19 +917,19 @@
         <v>15407</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6982</v>
+        <v>5990</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>29705</v>
+        <v>28889</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02000085707424266</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009064218278732774</v>
+        <v>0.007775913018748816</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03856220498259168</v>
+        <v>0.03750357146481809</v>
       </c>
     </row>
     <row r="7">
@@ -1021,19 +1021,19 @@
         <v>433760</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>416313</v>
+        <v>417670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>447943</v>
+        <v>447514</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9118111465506837</v>
+        <v>0.9118111465506836</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8751343437362877</v>
+        <v>0.8779883314626582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9416253635714623</v>
+        <v>0.9407232443311588</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>438</v>
@@ -1042,19 +1042,19 @@
         <v>478299</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>467220</v>
+        <v>466722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>485765</v>
+        <v>486040</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9565658871937581</v>
+        <v>0.9565658871937582</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9344076686457182</v>
+        <v>0.9334127782372591</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9714977659476463</v>
+        <v>0.9720459701256459</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>710</v>
@@ -1063,19 +1063,19 @@
         <v>912060</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>891887</v>
+        <v>893588</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>928252</v>
+        <v>928301</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9347459119435877</v>
+        <v>0.9347459119435878</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9140719491461008</v>
+        <v>0.9158152515320162</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9513412353479809</v>
+        <v>0.9513914732819979</v>
       </c>
     </row>
     <row r="9">
@@ -1092,19 +1092,19 @@
         <v>13040</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5793</v>
+        <v>5037</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>27350</v>
+        <v>26209</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02741223856445393</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01217692960298182</v>
+        <v>0.01058919272792705</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05749225236497423</v>
+        <v>0.05509395439767147</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1113,19 +1113,19 @@
         <v>6854</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3173</v>
+        <v>2661</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13556</v>
+        <v>13282</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01370806178083115</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006345830672265704</v>
+        <v>0.005322526980949007</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02711123202368417</v>
+        <v>0.02656395922840118</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1134,19 +1134,19 @@
         <v>19895</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10488</v>
+        <v>11467</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>33542</v>
+        <v>35389</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02038947237434517</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01074922306029477</v>
+        <v>0.01175207785946823</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03437663488659153</v>
+        <v>0.03626934214013598</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>28912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18638</v>
+        <v>18489</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>42402</v>
+        <v>42671</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06077661488486233</v>
+        <v>0.06077661488486234</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03917891985904139</v>
+        <v>0.03886565141672496</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08913398926086291</v>
+        <v>0.08969965182110272</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1184,19 +1184,19 @@
         <v>14864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8912</v>
+        <v>8789</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24577</v>
+        <v>25574</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02972605102541059</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01782338062262526</v>
+        <v>0.01757647397702649</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04915173465824832</v>
+        <v>0.05114703751663562</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1205,19 +1205,19 @@
         <v>43776</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31416</v>
+        <v>31647</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60257</v>
+        <v>60678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04486461568206709</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03219700462121094</v>
+        <v>0.03243447397645891</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06175575648964383</v>
+        <v>0.06218778750623347</v>
       </c>
     </row>
     <row r="11">
@@ -1309,19 +1309,19 @@
         <v>573401</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>555775</v>
+        <v>558968</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>586864</v>
+        <v>586091</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9252599859029422</v>
+        <v>0.925259985902942</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8968178271671748</v>
+        <v>0.9019703183676405</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9469837879524796</v>
+        <v>0.9457366436964924</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>815</v>
@@ -1330,19 +1330,19 @@
         <v>598778</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>589838</v>
+        <v>590124</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>606258</v>
+        <v>605662</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.962450889381114</v>
+        <v>0.9624508893811142</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9480802593533474</v>
+        <v>0.9485398210861068</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9744730662511707</v>
+        <v>0.9735148195725879</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1319</v>
@@ -1351,19 +1351,19 @@
         <v>1172179</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1152333</v>
+        <v>1155733</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1185602</v>
+        <v>1186969</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9438916784486904</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9279101118977693</v>
+        <v>0.9306484879555484</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9547002558813533</v>
+        <v>0.9558011320747836</v>
       </c>
     </row>
     <row r="13">
@@ -1380,19 +1380,19 @@
         <v>15008</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8727</v>
+        <v>7966</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25097</v>
+        <v>24081</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02421799702641952</v>
+        <v>0.02421799702641951</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01408142468363621</v>
+        <v>0.0128535961543199</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0404974661628968</v>
+        <v>0.03885757418385006</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -1401,19 +1401,19 @@
         <v>12708</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7489</v>
+        <v>7829</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20487</v>
+        <v>19284</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02042563069776693</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01203676361744006</v>
+        <v>0.01258384986912445</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03292986080403145</v>
+        <v>0.03099629821377214</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -1422,19 +1422,19 @@
         <v>27716</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>19425</v>
+        <v>19079</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39569</v>
+        <v>39901</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0223181183773898</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01564155601878506</v>
+        <v>0.01536309698717524</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03186245526735696</v>
+        <v>0.03212972778744034</v>
       </c>
     </row>
     <row r="14">
@@ -1451,19 +1451,19 @@
         <v>31309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20659</v>
+        <v>21755</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44841</v>
+        <v>44439</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05052201707063832</v>
+        <v>0.0505220170706383</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.03333598293626845</v>
+        <v>0.03510386253627704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07235626768533529</v>
+        <v>0.07170878536169795</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -1472,19 +1472,19 @@
         <v>10653</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5830</v>
+        <v>6223</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>17292</v>
+        <v>18168</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.017123479921119</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.009370215344977294</v>
+        <v>0.010003244928522</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02779503694030592</v>
+        <v>0.02920232866471667</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>42</v>
@@ -1493,19 +1493,19 @@
         <v>41963</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>30757</v>
+        <v>29759</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56339</v>
+        <v>55757</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03379020317391961</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02476729506633457</v>
+        <v>0.02396325834909826</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04536686736667912</v>
+        <v>0.04489841293876193</v>
       </c>
     </row>
     <row r="15">
@@ -1597,19 +1597,19 @@
         <v>633490</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>615542</v>
+        <v>618073</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>646248</v>
+        <v>649031</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9083405000090395</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8826051266497067</v>
+        <v>0.8862346987940384</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9266334028077101</v>
+        <v>0.9306244938490513</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1098</v>
@@ -1618,19 +1618,19 @@
         <v>708626</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>699831</v>
+        <v>700188</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>716257</v>
+        <v>716261</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9621602903293439</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9502182795416458</v>
+        <v>0.9507023499241005</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9725214670141639</v>
+        <v>0.9725267605461703</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1698</v>
@@ -1639,19 +1639,19 @@
         <v>1342117</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1323313</v>
+        <v>1323084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1359350</v>
+        <v>1359066</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.935983806010062</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9228700514757797</v>
+        <v>0.9227104397185788</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9480024869577994</v>
+        <v>0.9478041312318281</v>
       </c>
     </row>
     <row r="17">
@@ -1668,19 +1668,19 @@
         <v>19178</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12244</v>
+        <v>11785</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30511</v>
+        <v>28842</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02749874676632911</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01755583213919934</v>
+        <v>0.01689773756760194</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04374882263814651</v>
+        <v>0.04135530738952184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>25</v>
@@ -1689,19 +1689,19 @@
         <v>17345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11217</v>
+        <v>11208</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>24475</v>
+        <v>24737</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02355071606731732</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01522995952722542</v>
+        <v>0.01521800397273003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03323176029644959</v>
+        <v>0.03358802951704926</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -1710,19 +1710,19 @@
         <v>36523</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26846</v>
+        <v>26503</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>49464</v>
+        <v>48283</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02547093097469009</v>
+        <v>0.0254709309746901</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01872250643931586</v>
+        <v>0.01848335183951474</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03449615449295506</v>
+        <v>0.03367247813303754</v>
       </c>
     </row>
     <row r="18">
@@ -1739,19 +1739,19 @@
         <v>44747</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>33640</v>
+        <v>32536</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>59114</v>
+        <v>57014</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06416075322463141</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04823550021756608</v>
+        <v>0.0466519074450132</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08476100296061749</v>
+        <v>0.08174993300048911</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1760,19 +1760,19 @@
         <v>10524</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6577</v>
+        <v>6249</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16707</v>
+        <v>16528</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01428899360333861</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008930602496594525</v>
+        <v>0.008484721916528118</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02268459866724224</v>
+        <v>0.02244078165243078</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>60</v>
@@ -1781,19 +1781,19 @@
         <v>55270</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42594</v>
+        <v>42606</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>71113</v>
+        <v>70072</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03854526301524779</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02970484350504552</v>
+        <v>0.02971330114270016</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04959354733740706</v>
+        <v>0.04886774787776822</v>
       </c>
     </row>
     <row r="19">
@@ -1885,19 +1885,19 @@
         <v>516549</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>498472</v>
+        <v>498765</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>532047</v>
+        <v>532342</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8505267914470844</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8207625976237034</v>
+        <v>0.8212443734257798</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8760450859525174</v>
+        <v>0.8765308280141672</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>965</v>
@@ -1906,19 +1906,19 @@
         <v>586008</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>577391</v>
+        <v>578009</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>592047</v>
+        <v>593329</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9643096656638267</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9501292179741718</v>
+        <v>0.9511471526320967</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9742477483857848</v>
+        <v>0.97635663771324</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1526</v>
@@ -1927,19 +1927,19 @@
         <v>1102557</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1082546</v>
+        <v>1083081</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1120287</v>
+        <v>1119755</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9074355053011685</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8909659698106851</v>
+        <v>0.8914065518253869</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9220280878643246</v>
+        <v>0.9215897438778677</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>39466</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28368</v>
+        <v>28756</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52541</v>
+        <v>52442</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06498279317674217</v>
+        <v>0.06498279317674216</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04670978857724382</v>
+        <v>0.04734800121485257</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08651217734659802</v>
+        <v>0.0863487127888154</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>20</v>
@@ -1977,19 +1977,19 @@
         <v>12120</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7606</v>
+        <v>7094</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>18553</v>
+        <v>18324</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01994493571148051</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01251597035797638</v>
+        <v>0.01167310980536669</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03053049051214648</v>
+        <v>0.03015277177652903</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>63</v>
@@ -1998,19 +1998,19 @@
         <v>51586</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40356</v>
+        <v>38867</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66938</v>
+        <v>66339</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.0424570259140053</v>
+        <v>0.04245702591400529</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03321389531503568</v>
+        <v>0.03198823303964544</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05509178961367654</v>
+        <v>0.05459902294783447</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>51313</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39585</v>
+        <v>39364</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64886</v>
+        <v>64603</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08449041537617348</v>
+        <v>0.08449041537617349</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06517909335405582</v>
+        <v>0.06481567128097324</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1068388732853264</v>
+        <v>0.1063730323352092</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2048,19 +2048,19 @@
         <v>9568</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5503</v>
+        <v>5430</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15799</v>
+        <v>15230</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01574539862469274</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009054826016821418</v>
+        <v>0.008934864842556119</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02599809606519637</v>
+        <v>0.02506101312661643</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>72</v>
@@ -2069,19 +2069,19 @@
         <v>60882</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>48620</v>
+        <v>49047</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77048</v>
+        <v>76134</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05010746878482622</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04001587324262993</v>
+        <v>0.04036669970896254</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06341276932622483</v>
+        <v>0.06266015994035128</v>
       </c>
     </row>
     <row r="23">
@@ -2173,19 +2173,19 @@
         <v>299546</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>283236</v>
+        <v>283116</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>313315</v>
+        <v>313911</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7401367087018077</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6998371352288755</v>
+        <v>0.6995414076962716</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7741592641261442</v>
+        <v>0.7756316753022826</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>780</v>
@@ -2194,19 +2194,19 @@
         <v>413295</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>405611</v>
+        <v>405335</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>420085</v>
+        <v>420224</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.9410899525607006</v>
+        <v>0.9410899525607005</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.9235940089566221</v>
+        <v>0.922964668344018</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.9565514843425226</v>
+        <v>0.9568680733747322</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1202</v>
@@ -2215,19 +2215,19 @@
         <v>712841</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>694728</v>
+        <v>695600</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>730136</v>
+        <v>728779</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.8447150180644384</v>
+        <v>0.8447150180644386</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.8232515248475708</v>
+        <v>0.8242852373992291</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8652099906932826</v>
+        <v>0.8636025088282855</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>33818</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25109</v>
+        <v>25632</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>43256</v>
+        <v>45897</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08355937559531948</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06203994923067516</v>
+        <v>0.06333313436085067</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1068797603779812</v>
+        <v>0.1134044586181705</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>25</v>
@@ -2265,19 +2265,19 @@
         <v>14311</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9158</v>
+        <v>9649</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20366</v>
+        <v>21470</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03258600969226878</v>
+        <v>0.03258600969226877</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02085286758947514</v>
+        <v>0.02197088965993777</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04637385291797428</v>
+        <v>0.04888856281398777</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -2286,19 +2286,19 @@
         <v>48129</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37435</v>
+        <v>37818</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60577</v>
+        <v>59923</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0570322674665899</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04435985122830639</v>
+        <v>0.04481454272203161</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07178401222121532</v>
+        <v>0.07100822044937986</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>71353</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>59748</v>
+        <v>58491</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>84453</v>
+        <v>83854</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1763039157028728</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1476302065254358</v>
+        <v>0.1445233632840243</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2086712989281394</v>
+        <v>0.2071911644396255</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>22</v>
@@ -2336,19 +2336,19 @@
         <v>11561</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7152</v>
+        <v>6911</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17874</v>
+        <v>16686</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02632403774703066</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01628505772853513</v>
+        <v>0.01573589721215328</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04069980310312694</v>
+        <v>0.03799421846605593</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>122</v>
@@ -2357,19 +2357,19 @@
         <v>82914</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>69991</v>
+        <v>69171</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>98073</v>
+        <v>96320</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09825271446897159</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08293943516172564</v>
+        <v>0.08196737316985035</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1162162370703278</v>
+        <v>0.1141386980377188</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>247477</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>235647</v>
+        <v>235952</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>258352</v>
+        <v>258694</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7978040081568489</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7596653574494971</v>
+        <v>0.7606510386188634</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8328611194414955</v>
+        <v>0.8339641731605802</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>861</v>
@@ -2482,19 +2482,19 @@
         <v>453481</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>447803</v>
+        <v>447899</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>457603</v>
+        <v>457658</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9773171950696868</v>
+        <v>0.9773171950696867</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9650792957173344</v>
+        <v>0.9652880966430268</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.98620104228033</v>
+        <v>0.9863195260153442</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1223</v>
@@ -2503,19 +2503,19 @@
         <v>700958</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>686600</v>
+        <v>687283</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>712947</v>
+        <v>712873</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9053921213603046</v>
+        <v>0.9053921213603043</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.8868469796904431</v>
+        <v>0.8877281241322919</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9208773023060163</v>
+        <v>0.9207812781180543</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>19463</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>13336</v>
+        <v>13085</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28284</v>
+        <v>27767</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06274407943659863</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04299161346464288</v>
+        <v>0.04218145017223388</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09118182883732634</v>
+        <v>0.08951283243667578</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2553,19 +2553,19 @@
         <v>6019</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3143</v>
+        <v>3209</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>10548</v>
+        <v>10985</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01297147527541884</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006772747020026843</v>
+        <v>0.006916519803071889</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02273194948120424</v>
+        <v>0.02367391643959978</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>39</v>
@@ -2574,19 +2574,19 @@
         <v>25482</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>18019</v>
+        <v>19030</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>36086</v>
+        <v>35696</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03291373291434638</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02327397697643399</v>
+        <v>0.02458039854675115</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04660984170761305</v>
+        <v>0.04610641490542201</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>43258</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>33870</v>
+        <v>34123</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>53235</v>
+        <v>53659</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1394519124065523</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1091870583472608</v>
+        <v>0.1100054145569597</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1716150047290132</v>
+        <v>0.1729817752980297</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>8</v>
@@ -2624,19 +2624,19 @@
         <v>4506</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>2127</v>
+        <v>1932</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8611</v>
+        <v>8842</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.009711329654894407</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.004583643430200261</v>
+        <v>0.004162753308980955</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.01855760438545259</v>
+        <v>0.01905537490410377</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>76</v>
@@ -2645,19 +2645,19 @@
         <v>47764</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>37614</v>
+        <v>37499</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>59322</v>
+        <v>58474</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06169414572534917</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04858425618168284</v>
+        <v>0.04843546601868717</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07662367989602191</v>
+        <v>0.07552741808758047</v>
       </c>
     </row>
     <row r="31">
@@ -2749,19 +2749,19 @@
         <v>3072085</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3026693</v>
+        <v>3034612</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3111405</v>
+        <v>3110837</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8720372345984299</v>
+        <v>0.87203723459843</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8591522203833669</v>
+        <v>0.8614001082694799</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8831985419258347</v>
+        <v>0.8830373885104258</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5163</v>
@@ -2770,19 +2770,19 @@
         <v>3598737</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3579153</v>
+        <v>3578958</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3616697</v>
+        <v>3617078</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.9642835079762527</v>
+        <v>0.9642835079762528</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.9590361025761077</v>
+        <v>0.9589836063463009</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9690958837027084</v>
+        <v>0.9691979104183844</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8039</v>
@@ -2791,19 +2791,19 @@
         <v>6670822</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6627363</v>
+        <v>6622110</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>6718176</v>
+        <v>6715835</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9194900392254699</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.913499807592221</v>
+        <v>0.9127757524497939</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.926017161805702</v>
+        <v>0.9256944846270765</v>
       </c>
     </row>
     <row r="33">
@@ -2820,19 +2820,19 @@
         <v>166761</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>140308</v>
+        <v>141724</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>198855</v>
+        <v>197389</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.04733653161148014</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.03982757104770126</v>
+        <v>0.04022967954975785</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.05644666748098013</v>
+        <v>0.05603046768366712</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>105</v>
@@ -2841,19 +2841,19 @@
         <v>69357</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>57095</v>
+        <v>57251</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>83483</v>
+        <v>83897</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01858419699421892</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01529866731759976</v>
+        <v>0.01534049848325184</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0223692584130101</v>
+        <v>0.02248015952428194</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>270</v>
@@ -2862,19 +2862,19 @@
         <v>236118</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>204350</v>
+        <v>205146</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>269623</v>
+        <v>270106</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.03254591875305125</v>
+        <v>0.03254591875305126</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.02816711247215103</v>
+        <v>0.02827685339289562</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.03716412057065639</v>
+        <v>0.03723077176869122</v>
       </c>
     </row>
     <row r="34">
@@ -2891,19 +2891,19 @@
         <v>284037</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>255847</v>
+        <v>254642</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>320325</v>
+        <v>316825</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08062623379008986</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07262437911128651</v>
+        <v>0.07228227400994944</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09092703711063443</v>
+        <v>0.08993354750321381</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>91</v>
@@ -2912,19 +2912,19 @@
         <v>63938</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>51017</v>
+        <v>51593</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>77870</v>
+        <v>79995</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01713229502952839</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0136699064586027</v>
+        <v>0.01382427982419036</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02086527701192705</v>
+        <v>0.02143459895002154</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>416</v>
@@ -2933,19 +2933,19 @@
         <v>347975</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>314193</v>
+        <v>310782</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>384475</v>
+        <v>384907</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04796404202147892</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0433075932847836</v>
+        <v>0.0428374581684962</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05299507070980348</v>
+        <v>0.05305469585556552</v>
       </c>
     </row>
     <row r="35">
